--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -414,14 +414,179 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>614</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-01-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Trần Nguyễn Yến Linh</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Đỗ Thị Huyền Trân</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>360000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -457,7 +622,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +632,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +642,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>160714.2857142857</v>
       </c>
     </row>
     <row r="5">
@@ -487,7 +652,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="6">
@@ -577,7 +742,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>160714.2857142857</v>
       </c>
     </row>
     <row r="15">
@@ -677,7 +842,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>160714.2857142857</v>
       </c>
     </row>
     <row r="25">
@@ -757,7 +922,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>573214.2857142857</v>
       </c>
     </row>
     <row r="33">
@@ -767,7 +932,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>160714.2857142857</v>
       </c>
     </row>
     <row r="34">
@@ -777,17 +942,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>160714.2857142857</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>894642.857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,35 +557,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>620</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Trần Thị Thanh Nhàn</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3640000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
         <v>6000000</v>
       </c>
-      <c r="K3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>6000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>360000</v>
+      <c r="K4" t="n">
+        <v>34000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>34000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4000000</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,6 +666,543 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>620</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Trần Thị Thanh Nhàn</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>28000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>621</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Trần Thị Ngọc Dung</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>9000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3700000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Y3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-587</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Minh Ngọc</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -622,7 +1217,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -632,7 +1227,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52500</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="4">
@@ -642,7 +1237,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160714.2857142857</v>
+        <v>53571.42857142857</v>
       </c>
     </row>
     <row r="5">
@@ -652,7 +1247,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>360000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="6">
@@ -672,7 +1267,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3700000</v>
       </c>
     </row>
     <row r="8">
@@ -708,27 +1303,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -738,27 +1333,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>160714.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>53571.42857142857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -768,7 +1363,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -778,7 +1373,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -788,7 +1383,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -798,7 +1393,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -808,7 +1403,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -818,7 +1413,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -828,27 +1423,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>160714.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -858,17 +1453,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>53571.42857142857</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -878,7 +1473,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -888,7 +1483,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -898,7 +1493,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -908,7 +1503,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -918,41 +1513,71 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>573214.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>160714.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>160714.2857142857</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Tổng lương tại CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>7771071.428571429</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Tổng lương tại LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>53571.42857142857</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>53571.42857142857</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>894642.857142857</v>
+      <c r="B38" t="n">
+        <v>7878214.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -655,7 +655,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -850,35 +850,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>633</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Bạch Nhi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>37000000</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>37000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>37000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3700000</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>52000000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>52000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>44000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4400000</v>
       </c>
     </row>
   </sheetData>
@@ -892,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y3"/>
+  <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,59 +1181,441 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>177</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-611</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ngọc hân</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-356</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>179</v>
+      </c>
+      <c r="C5" t="n">
+        <v/>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-500</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>pola</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v/>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>180</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-500</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>pola</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v/>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W6" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>10000000</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>176000000</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N7" t="n">
+        <v>184000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>137000000</v>
+      </c>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,7 +1655,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1227,7 +1665,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17500</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="4">
@@ -1237,7 +1675,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53571.42857142857</v>
+        <v>428571.4285714285</v>
       </c>
     </row>
     <row r="5">
@@ -1267,7 +1705,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3700000</v>
+        <v>4400000</v>
       </c>
     </row>
     <row r="8">
@@ -1317,7 +1755,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1000000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="13">
@@ -1347,7 +1785,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53571.42857142857</v>
+        <v>428571.4285714285</v>
       </c>
     </row>
     <row r="16">
@@ -1457,7 +1895,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>53571.42857142857</v>
+        <v>428571.4285714285</v>
       </c>
     </row>
     <row r="27">
@@ -1527,7 +1965,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="34">
@@ -1547,7 +1985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7771071.428571429</v>
+        <v>7968571.428571429</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1995,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>53571.42857142857</v>
+        <v>428571.4285714285</v>
       </c>
     </row>
     <row r="37">
@@ -1567,7 +2005,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53571.42857142857</v>
+        <v>1628571.428571429</v>
       </c>
     </row>
     <row r="38">
@@ -1577,7 +2015,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7878214.285714285</v>
+        <v>10025714.28571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -948,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1563,60 +1563,157 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>184</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
-        <v>22000000</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>176000000</v>
-      </c>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>23000000</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>196000000</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>8000000</v>
       </c>
-      <c r="N7" t="n">
-        <v>184000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>137000000</v>
-      </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
+      <c r="N8" t="n">
+        <v>204000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>153000000</v>
+      </c>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>2200000</v>
       </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>60000</v>
       </c>
     </row>
   </sheetData>
@@ -1655,7 +1752,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1665,7 +1762,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140000</v>
+        <v>245000</v>
       </c>
     </row>
     <row r="4">
@@ -1675,7 +1772,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>428571.4285714285</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="5">
@@ -1745,7 +1842,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1000000</v>
+        <v>1060000</v>
       </c>
     </row>
     <row r="12">
@@ -1785,7 +1882,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>428571.4285714285</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="16">
@@ -1895,7 +1992,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>428571.4285714285</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="27">
@@ -1985,7 +2082,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>7968571.428571429</v>
+        <v>8455000</v>
       </c>
     </row>
     <row r="36">
@@ -1995,7 +2092,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>428571.4285714285</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="37">
@@ -2005,7 +2102,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1628571.428571429</v>
+        <v>1950000</v>
       </c>
     </row>
     <row r="38">
@@ -2015,7 +2112,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>10025714.28571429</v>
+        <v>11155000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -9,8 +9,10 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn thu nợ" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn 2 bác sĩ" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn thu nợ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Phạt" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Lương" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -416,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -613,35 +615,91 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>671</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hồ Minh Trường</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="I4" t="n">
+        <v/>
+      </c>
+      <c r="J4" t="n">
+        <v/>
+      </c>
+      <c r="K4" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2330000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>28000000</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>51300000</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
         <v>6000000</v>
       </c>
-      <c r="K4" t="n">
-        <v>34000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>34000000</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4000000</v>
+      <c r="K5" t="n">
+        <v>57300000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>57300000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6330000</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -906,35 +964,147 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>652</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+      <c r="J5" t="n">
+        <v/>
+      </c>
+      <c r="K5" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>671</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-21-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Hồ Minh Trường</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="I6" t="n">
+        <v/>
+      </c>
+      <c r="J6" t="n">
+        <v/>
+      </c>
+      <c r="K6" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="L6" t="n">
+        <v>23300000</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2330000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>52000000</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>52000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>44000000</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4400000</v>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>97300000</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>97300000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>89300000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8930000</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y8"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,27 +1134,27 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Mã đơn thu nợ</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Lượng thu</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Ngày thu</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Đơn nợ</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
@@ -994,90 +1164,35 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Khách hàng</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Nguồn khách</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Sale chính</t>
+          <t>Upsale</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Đơn giá gốc</t>
+          <t>Đơn giá</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Sale phụ</t>
+          <t>Đã thanh toán</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Upsale</t>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
-        <is>
-          <t>Đơn giá</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Đã thanh toán</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale chính</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Chiết khấu sale phụ</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Chiết khấu bác sĩ 1</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
         <is>
           <t>Chiết khấu bác sĩ 2</t>
         </is>
@@ -1086,634 +1201,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>173</v>
-      </c>
-      <c r="C2" t="n">
-        <v>10000000</v>
+        <v>660</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-17-2024</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>LONG XUYÊN</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CẦN THƠ</t>
+          <t>Trương thị kiều</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>HD-LUXURY-587</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Lâm Minh Ngọc</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Khách cũ</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Lê Văn Linh</t>
-        </is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
       </c>
       <c r="K2" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L2" t="n">
         <v>20000000</v>
       </c>
-      <c r="L2" t="n">
-        <v/>
-      </c>
       <c r="M2" t="n">
-        <v/>
+        <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="Q2" t="n">
-        <v/>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177</v>
-      </c>
-      <c r="C3" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>08-05-2024</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-611</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ngọc hân</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>35000000</v>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Lê Đình Hậu</t>
-        </is>
+      <c r="L3" t="n">
+        <v>20000000</v>
       </c>
       <c r="M3" t="n">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="O3" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="Q3" t="n">
-        <v/>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W3" t="n">
-        <v>800000</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>178</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>08-06-2024</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-356</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>thuý vân</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="K4" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="L4" t="n">
-        <v/>
-      </c>
-      <c r="M4" t="n">
-        <v/>
-      </c>
-      <c r="N4" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="O4" t="n">
-        <v>26000000</v>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v/>
-      </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>200000</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>179</v>
-      </c>
-      <c r="C5" t="n">
-        <v/>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>08-09-2024</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-500</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>pola</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="K5" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="L5" t="n">
-        <v/>
-      </c>
-      <c r="M5" t="n">
-        <v/>
-      </c>
-      <c r="N5" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="O5" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v/>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v/>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>180</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>08-09-2024</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-500</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>pola</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Thạch Hoàng Nhân</t>
-        </is>
-      </c>
-      <c r="K6" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="L6" t="n">
-        <v/>
-      </c>
-      <c r="M6" t="n">
-        <v/>
-      </c>
-      <c r="N6" t="n">
-        <v>43000000</v>
-      </c>
-      <c r="O6" t="n">
-        <v>24000000</v>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v/>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W6" t="n">
-        <v>200000</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>184</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1000000</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>08-10-2024</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>HD-LUXURY-315</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Nâng Mũi Dựng Trụ</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Mai Bảo Thi</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="L7" t="n">
-        <v/>
-      </c>
-      <c r="M7" t="n">
-        <v/>
-      </c>
-      <c r="N7" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="O7" t="n">
-        <v>16000000</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Lâm Thị Mỹ Hằng</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Phạm Thanh Hoàng</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="n">
-        <v>23000000</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>196000000</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="N8" t="n">
-        <v>204000000</v>
-      </c>
-      <c r="O8" t="n">
-        <v>153000000</v>
-      </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>2200000</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>60000</v>
+        <v>1200000</v>
       </c>
     </row>
   </sheetData>
@@ -1727,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1738,6 +1310,1114 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã đơn thu nợ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Lượng thu</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Ngày thu</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Đơn nợ</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Sale chính</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>173</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-587</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Lâm Minh Ngọc</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Khách cũ</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lê Văn Linh</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v/>
+      </c>
+      <c r="M2" t="n">
+        <v/>
+      </c>
+      <c r="N2" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
+        <v/>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>177</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>08-05-2024</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-611</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ngọc hân</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N3" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O3" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v/>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W3" t="n">
+        <v>800000</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>178</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-356</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>thuý vân</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v/>
+      </c>
+      <c r="M4" t="n">
+        <v/>
+      </c>
+      <c r="N4" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="O4" t="n">
+        <v>26000000</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v/>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W4" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>180</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-500</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>pola</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Thạch Hoàng Nhân</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="L5" t="n">
+        <v/>
+      </c>
+      <c r="M5" t="n">
+        <v/>
+      </c>
+      <c r="N5" t="n">
+        <v>43000000</v>
+      </c>
+      <c r="O5" t="n">
+        <v>24000000</v>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v/>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W5" t="n">
+        <v>200000</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>184</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1000000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>08-10-2024</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L6" t="n">
+        <v/>
+      </c>
+      <c r="M6" t="n">
+        <v/>
+      </c>
+      <c r="N6" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O6" t="n">
+        <v>16000000</v>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>185</v>
+      </c>
+      <c r="C7" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-557</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc My</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Lê Đình Hậu</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v/>
+      </c>
+      <c r="M7" t="n">
+        <v/>
+      </c>
+      <c r="N7" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="O7" t="n">
+        <v>35000000</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v/>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W7" t="n">
+        <v>300000</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>187</v>
+      </c>
+      <c r="C8" t="n">
+        <v>500000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-414</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">em Tuyền </t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v/>
+      </c>
+      <c r="M8" t="n">
+        <v/>
+      </c>
+      <c r="N8" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="O8" t="n">
+        <v>8500000</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v/>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W8" t="n">
+        <v>50000</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>189</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5000000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>08-20-2024</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-465</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Phạm Trần Thuý Vi</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v/>
+      </c>
+      <c r="M9" t="n">
+        <v/>
+      </c>
+      <c r="N9" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="O9" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v/>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W9" t="n">
+        <v>500000</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31500000</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>213000000</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="N10" t="n">
+        <v>221000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>187500000</v>
+      </c>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>3050000</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>60000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Ngày phát sinh</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mã thưởng phạt</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id nhân sự</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thưởng phạt</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Lí do</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Họ và tên</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>d998e336-8b66-410e-beaa-f1d9fb15ee06</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phạt</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>300000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Vắng không phép</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>300000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -1752,7 +2432,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3">
@@ -1762,7 +2442,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245000</v>
+        <v>437500</v>
       </c>
     </row>
     <row r="4">
@@ -1772,7 +2452,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>750000</v>
+        <v>1339285.714285714</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +2462,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4000000</v>
+        <v>6330000</v>
       </c>
     </row>
     <row r="6">
@@ -1802,7 +2482,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4400000</v>
+        <v>6730000</v>
       </c>
     </row>
     <row r="8">
@@ -1842,7 +2522,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1060000</v>
+        <v>1860000</v>
       </c>
     </row>
     <row r="12">
@@ -1852,53 +2532,53 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2000000</v>
+        <v>-13350000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Phạt tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-300000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>750000</v>
+        <v>321428.5714285714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1339285.714285714</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1908,7 +2588,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1918,7 +2598,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1928,17 +2608,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1948,7 +2628,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1958,27 +2638,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1988,27 +2668,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1339285.714285714</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2018,7 +2698,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2028,17 +2708,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>2200000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2048,7 +2728,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2058,61 +2738,71 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8455000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>750000</v>
+        <v>3046785.714285715</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1950000</v>
+        <v>2860714.285714285</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4789285.714285715</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B38" t="n">
-        <v>11155000</v>
+      <c r="B39" t="n">
+        <v>10696785.71428571</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="I5" t="n">
         <v/>
@@ -1005,16 +1005,16 @@
         <v/>
       </c>
       <c r="K5" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="L5" t="n">
-        <v>22000000</v>
+        <v>18000000</v>
       </c>
       <c r="M5" t="n">
         <v>0.1</v>
       </c>
       <c r="N5" t="n">
-        <v>2200000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="6">
@@ -1088,23 +1088,23 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>97300000</v>
+        <v>93300000</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>97300000</v>
+        <v>93300000</v>
       </c>
       <c r="L7" t="n">
-        <v>89300000</v>
+        <v>85300000</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>8930000</v>
+        <v>8530000</v>
       </c>
     </row>
   </sheetData>
@@ -1245,13 +1245,13 @@
         <v>35000000</v>
       </c>
       <c r="L2" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="M2" t="n">
         <v>0.06</v>
       </c>
       <c r="N2" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="3">
@@ -1279,13 +1279,13 @@
         <v>35000000</v>
       </c>
       <c r="L3" t="n">
-        <v>20000000</v>
+        <v>35000000</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
   </sheetData>
@@ -1299,7 +1299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1876,7 +1876,7 @@
         <v>20000000</v>
       </c>
       <c r="O6" t="n">
-        <v>16000000</v>
+        <v>18000000</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -2201,60 +2201,157 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>194</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2000000</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>08-23-2024</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-315</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nâng Mũi Dựng Trụ</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mai Bảo Thi</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v/>
+      </c>
+      <c r="M10" t="n">
+        <v/>
+      </c>
+      <c r="N10" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="O10" t="n">
+        <v>18000000</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>31500000</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>213000000</v>
-      </c>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>33500000</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>233000000</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>8000000</v>
       </c>
-      <c r="N10" t="n">
-        <v>221000000</v>
-      </c>
-      <c r="O10" t="n">
-        <v>187500000</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="N11" t="n">
+        <v>241000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>207500000</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>3050000</v>
       </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>60000</v>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>180000</v>
       </c>
     </row>
   </sheetData>
@@ -2522,7 +2619,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1860000</v>
+        <v>1980000</v>
       </c>
     </row>
     <row r="12">
@@ -2612,7 +2709,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1200000</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="21">
@@ -2712,7 +2809,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2200000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="31">
@@ -2772,7 +2869,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3046785.714285715</v>
+        <v>3166785.714285716</v>
       </c>
     </row>
     <row r="37">
@@ -2782,7 +2879,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2860714.285714285</v>
+        <v>3760714.285714285</v>
       </c>
     </row>
     <row r="38">
@@ -2792,7 +2889,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4789285.714285715</v>
+        <v>4389285.714285715</v>
       </c>
     </row>
     <row r="39">
@@ -2802,7 +2899,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>10696785.71428571</v>
+        <v>11316785.71428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -1118,7 +1118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1257,35 +1257,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>684</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-25-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị Như Ý</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>35000000</v>
       </c>
-      <c r="I3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v/>
+      </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v/>
       </c>
       <c r="K3" t="n">
         <v>35000000</v>
       </c>
       <c r="L3" t="n">
-        <v>35000000</v>
+        <v>27000000</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="N3" t="n">
-        <v>2100000</v>
+        <v>1620000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>70000000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>62000000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3720000</v>
       </c>
     </row>
   </sheetData>
@@ -2365,7 +2421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,12 +2484,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-22-2024</t>
+          <t>08-26-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>d998e336-8b66-410e-beaa-f1d9fb15ee06</t>
+          <t>32f0f81a-f3dd-473d-a17e-a472823fd4bc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2442,7 +2498,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -2474,24 +2530,72 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>08-22-2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>d998e336-8b66-410e-beaa-f1d9fb15ee06</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>TP</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
+        <v>11</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>a73ea60d-3de1-4e9b-aa7b-f22fda5742bd</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Phạt</t>
+        </is>
+      </c>
       <c r="H3" t="n">
         <v>300000</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Vắng không phép</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>600000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2529,7 +2633,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="3">
@@ -2539,7 +2643,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>437500</v>
+        <v>542500</v>
       </c>
     </row>
     <row r="4">
@@ -2549,7 +2653,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1339285.714285714</v>
+        <v>1660714.285714286</v>
       </c>
     </row>
     <row r="5">
@@ -2589,7 +2693,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="9">
@@ -2639,7 +2743,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-300000</v>
+        <v>-600000</v>
       </c>
     </row>
     <row r="14">
@@ -2669,7 +2773,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1339285.714285714</v>
+        <v>1660714.285714286</v>
       </c>
     </row>
     <row r="17">
@@ -2779,7 +2883,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1339285.714285714</v>
+        <v>1660714.285714286</v>
       </c>
     </row>
     <row r="28">
@@ -2869,7 +2973,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3166785.714285716</v>
+        <v>4913214.285714284</v>
       </c>
     </row>
     <row r="37">
@@ -2879,7 +2983,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3760714.285714285</v>
+        <v>4082142.857142857</v>
       </c>
     </row>
     <row r="38">
@@ -2889,7 +2993,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4389285.714285715</v>
+        <v>4710714.285714285</v>
       </c>
     </row>
     <row r="39">
@@ -2899,7 +3003,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>11316785.71428572</v>
+        <v>13706071.42857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -2863,7 +2863,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -2873,7 +2873,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>321428.5714285714</v>
       </c>
     </row>
     <row r="27">
@@ -2993,7 +2993,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>4710714.285714285</v>
+        <v>5032142.857142857</v>
       </c>
     </row>
     <row r="39">
@@ -3003,7 +3003,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13706071.42857143</v>
+        <v>14027500</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -713,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1076,35 +1076,147 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>692</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-27-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Phan Thị Diễm My</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="I7" t="n">
+        <v/>
+      </c>
+      <c r="J7" t="n">
+        <v/>
+      </c>
+      <c r="K7" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="L7" t="n">
+        <v>22000000</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N7" t="n">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>696</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>nguyễn thanh tuyền</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="I8" t="n">
+        <v/>
+      </c>
+      <c r="J8" t="n">
+        <v/>
+      </c>
+      <c r="K8" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>93300000</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>93300000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>85300000</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>8530000</v>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>130300000</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>130300000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>122300000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>12230000</v>
       </c>
     </row>
   </sheetData>
@@ -2683,7 +2795,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6730000</v>
+        <v>8930000</v>
       </c>
     </row>
     <row r="8">
@@ -2863,7 +2975,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -2873,7 +2985,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>321428.5714285714</v>
+        <v>642857.1428571428</v>
       </c>
     </row>
     <row r="27">
@@ -2913,7 +3025,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1800000</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="31">
@@ -2973,7 +3085,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4913214.285714284</v>
+        <v>7113214.285714284</v>
       </c>
     </row>
     <row r="37">
@@ -2993,7 +3105,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5032142.857142857</v>
+        <v>6853571.428571429</v>
       </c>
     </row>
     <row r="39">
@@ -3003,7 +3115,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>14027500</v>
+        <v>18048928.57142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -713,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1188,35 +1188,91 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>699</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Nguyễn Thị My Sa</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="I9" t="n">
+        <v/>
+      </c>
+      <c r="J9" t="n">
+        <v/>
+      </c>
+      <c r="K9" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="L9" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>130300000</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>130300000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>122300000</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12230000</v>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>155300000</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>155300000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>147300000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>14730000</v>
       </c>
     </row>
   </sheetData>
@@ -1467,7 +1523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y11"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2466,59 +2522,154 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>TN</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>08-29-2024</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HD-LUXURY-192</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Tiến</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Lâm Thị Mỹ Hằng</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="L11" t="n">
+        <v/>
+      </c>
+      <c r="M11" t="n">
+        <v/>
+      </c>
+      <c r="N11" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="O11" t="n">
+        <v>18800000</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Phạm Thanh Hoàng</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v/>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W11" t="n">
+        <v>420000</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="n">
-        <v>33500000</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>233000000</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>37700000</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>258000000</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>8000000</v>
       </c>
-      <c r="N11" t="n">
-        <v>241000000</v>
-      </c>
-      <c r="O11" t="n">
-        <v>207500000</v>
-      </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>3050000</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
+      <c r="N12" t="n">
+        <v>266000000</v>
+      </c>
+      <c r="O12" t="n">
+        <v>226300000</v>
+      </c>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>3470000</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>180000</v>
       </c>
     </row>
@@ -2720,7 +2871,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2745,73 +2896,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Phụ cấp tại CẦN THƠ</t>
+          <t>Lương cơ bản tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>542500</v>
+        <v>1982142.857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại CẦN THƠ</t>
+          <t>Chiết khấu sale chính tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1660714.285714286</v>
+        <v>6330000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại CẦN THƠ</t>
+          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6330000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại CẦN THƠ</t>
+          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11430000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại CẦN THƠ</t>
+          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8930000</v>
+        <v>1620000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại CẦN THƠ</t>
+          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại CẦN THƠ</t>
+          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2821,77 +2972,77 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại CẦN THƠ</t>
+          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại CẦN THƠ</t>
+          <t>Ứng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1980000</v>
+        <v>-13350000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ứng lương tại CẦN THƠ</t>
+          <t>Phạt tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-13350000</v>
+        <v>-600000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phạt tại CẦN THƠ</t>
+          <t>Tổng công tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-600000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tổng công tại LONG XUYÊN</t>
+          <t>Lương công tác tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>321428.5714285714</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Lương công tác tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>321428.5714285714</v>
+        <v>1982142.857142857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1660714.285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2901,7 +3052,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2911,27 +3062,27 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2100000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2100000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -2941,7 +3092,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -2951,57 +3102,57 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>642857.1428571428</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>642857.1428571428</v>
+        <v>1982142.857142857</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1660714.285714286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -3011,27 +3162,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3300000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -3041,7 +3192,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -3051,71 +3202,61 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1250000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Chiết khấu thu nợ tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1250000</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0</v>
+        <v>9812142.857142858</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7113214.285714284</v>
+        <v>4403571.428571428</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4082142.857142857</v>
+        <v>7175000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>6853571.428571429</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>18048928.57142857</v>
+        <v>21390714.28571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Báo cáo cá nhân/NV-7 Phạm Thanh Hoàng 8-2024.xlsx
@@ -713,7 +713,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1244,35 +1244,91 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>708</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Nguyễn Ngọc Hân</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="I10" t="n">
+        <v/>
+      </c>
+      <c r="J10" t="n">
+        <v/>
+      </c>
+      <c r="K10" t="n">
+        <v>20000000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>175300000</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>175300000</v>
+      </c>
+      <c r="L11" t="n">
         <v>155300000</v>
       </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>155300000</v>
-      </c>
-      <c r="L10" t="n">
-        <v>147300000</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>14730000</v>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15530000</v>
       </c>
     </row>
   </sheetData>
@@ -2886,7 +2942,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -2896,7 +2952,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="3">
@@ -2906,7 +2962,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1982142.857142857</v>
+        <v>2089285.714285714</v>
       </c>
     </row>
     <row r="4">
@@ -2936,7 +2992,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11430000</v>
+        <v>12230000</v>
       </c>
     </row>
     <row r="7">
@@ -3026,7 +3082,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1982142.857142857</v>
+        <v>2089285.714285714</v>
       </c>
     </row>
     <row r="16">
@@ -3136,7 +3192,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1982142.857142857</v>
+        <v>2089285.714285714</v>
       </c>
     </row>
     <row r="27">
@@ -3226,7 +3282,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>9812142.857142858</v>
+        <v>10719285.71428572</v>
       </c>
     </row>
     <row r="36">
@@ -3236,7 +3292,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4403571.428571428</v>
+        <v>4510714.285714285</v>
       </c>
     </row>
     <row r="37">
@@ -3246,7 +3302,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>7175000</v>
+        <v>7282142.857142856</v>
       </c>
     </row>
     <row r="38">
@@ -3256,7 +3312,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>21390714.28571429</v>
+        <v>22512142.85714286</v>
       </c>
     </row>
   </sheetData>
